--- a/MADVCameraTCPCommands.xlsx
+++ b/MADVCameraTCPCommands.xlsx
@@ -5,11 +5,11 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="版本" sheetId="1" r:id="rId4"/>
-    <sheet name="相机参数" sheetId="2" r:id="rId5"/>
-    <sheet name="mp4用户自定义数据结构" sheetId="3" r:id="rId6"/>
-    <sheet name="相机错误码" sheetId="4" r:id="rId7"/>
-    <sheet name="EXIF自定义说明" sheetId="5" r:id="rId8"/>
+    <sheet name="Revision" sheetId="1" r:id="rId4"/>
+    <sheet name="TCP Commands" sheetId="2" r:id="rId5"/>
+    <sheet name="MP4 boxes" sheetId="3" r:id="rId6"/>
+    <sheet name="Error codes" sheetId="4" r:id="rId7"/>
+    <sheet name="EXIF metadata" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
